--- a/경기결과 정리표.xlsx
+++ b/경기결과 정리표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyp/Documents/GitHub/dhskarheowls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306E59D8-8A28-DE44-9377-B64E3D6BCF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E30184-60DD-F94B-BEC6-E29496CE302E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="1320" windowWidth="20520" windowHeight="17220" xr2:uid="{B63956DB-4A4E-634F-AB27-316D8BBDD87F}"/>
   </bookViews>
@@ -740,7 +740,7 @@
   <dimension ref="A1:AQ94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -827,18 +827,6 @@
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>25</v>
-      </c>
-      <c r="H2">
-        <v>24</v>
-      </c>
-      <c r="I2">
-        <v>7</v>
-      </c>
     </row>
     <row r="3" spans="1:43">
       <c r="A3" s="1">
@@ -856,18 +844,6 @@
       <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>25</v>
-      </c>
-      <c r="H3">
-        <v>11</v>
-      </c>
-      <c r="I3">
-        <v>12</v>
-      </c>
     </row>
     <row r="4" spans="1:43">
       <c r="A4" s="1">
@@ -902,10 +878,6 @@
       <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:43">
       <c r="A6" s="1">
@@ -1092,18 +1064,6 @@
       </c>
       <c r="E16" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="F16">
-        <v>7</v>
-      </c>
-      <c r="G16">
-        <v>25</v>
-      </c>
-      <c r="H16">
-        <v>22</v>
-      </c>
-      <c r="I16">
-        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5">
